--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\ADSEE-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B010F7-4E54-4FBE-8650-6FA383B56DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC52559-0266-4EE9-8E17-382392191AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD179A14-2C04-4BDE-906E-C539D4857755}"/>
   </bookViews>
@@ -35,12 +35,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Div</t>
   </si>
   <si>
     <t>Use a high weight for linear relation</t>
+  </si>
+  <si>
+    <t>distance val</t>
+  </si>
+  <si>
+    <t>-300301, 346.77, 15:36:43</t>
+  </si>
+  <si>
+    <t>-300565, 348.74, 15:36:44</t>
+  </si>
+  <si>
+    <t>-300413, 346.50, 15:36:45</t>
+  </si>
+  <si>
+    <t>-299695, 346.06, 15:36:46</t>
+  </si>
+  <si>
+    <t>-300927, 346.65</t>
+  </si>
+  <si>
+    <t>347.56</t>
+  </si>
+  <si>
+    <t>349.57</t>
+  </si>
+  <si>
+    <t>77 cm</t>
+  </si>
+  <si>
+    <t>16cm at test start</t>
   </si>
 </sst>
 </file>
@@ -238,10 +268,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-296062.2</c:v>
+                  <c:v>-181915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1159109.3999999999</c:v>
+                  <c:v>-300380.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,10 +283,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6630.9</c:v>
+                  <c:v>6405.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11641</c:v>
+                  <c:v>9018.7999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52A76D-78FA-44FB-9745-E0A6B9CB8EC1}">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,101 +1397,222 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-296263</v>
+        <v>-182051</v>
+      </c>
+      <c r="B4">
+        <v>-180631</v>
+      </c>
+      <c r="D4">
+        <v>-180049</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-295137</v>
+        <v>-181465</v>
+      </c>
+      <c r="B5">
+        <v>-181153</v>
+      </c>
+      <c r="D5">
+        <v>-179487</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-296135</v>
+        <v>-182879</v>
+      </c>
+      <c r="B6">
+        <v>-180751</v>
+      </c>
+      <c r="D6">
+        <v>-180257</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-296365</v>
+        <v>-181943</v>
+      </c>
+      <c r="B7">
+        <v>-181427</v>
+      </c>
+      <c r="D7">
+        <v>-179977</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-296411</v>
+        <v>-181237</v>
+      </c>
+      <c r="D8">
+        <v>-179723</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>AVERAGE(A3:A8)</f>
-        <v>-296062.2</v>
+        <v>-181915</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>-180990.5</v>
       </c>
       <c r="C9">
-        <v>6630.9</v>
+        <f xml:space="preserve"> 5006.7 +1398.9</f>
+        <v>6405.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12">
         <f>A9</f>
-        <v>-296062.2</v>
+        <v>-181915</v>
       </c>
       <c r="E12">
         <f>C9</f>
-        <v>6630.9</v>
+        <v>6405.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>A20</f>
-        <v>-1159109.3999999999</v>
+        <v>-300380.2</v>
       </c>
       <c r="E13">
         <f>C20</f>
-        <v>11641</v>
+        <v>9018.7999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>-285583</v>
+      </c>
+      <c r="D14">
+        <v>-301149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-1159629</v>
+        <v>-300301</v>
+      </c>
+      <c r="B15">
+        <v>-286039</v>
+      </c>
+      <c r="D15">
+        <v>-300479</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-1159233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-300565</v>
+      </c>
+      <c r="B16">
+        <v>-284831</v>
+      </c>
+      <c r="D16">
+        <v>-301067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-1158683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-300413</v>
+      </c>
+      <c r="B17">
+        <v>-285425</v>
+      </c>
+      <c r="D17">
+        <v>-301469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-1159037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-299695</v>
+      </c>
+      <c r="B18">
+        <v>-283917</v>
+      </c>
+      <c r="D18">
+        <v>-301343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-1158965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-300927</v>
+      </c>
+      <c r="B19">
+        <v>-283891</v>
+      </c>
+      <c r="D19">
+        <v>-301803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>AVERAGE(A14:A19)</f>
-        <v>-1159109.3999999999</v>
+        <v>-300380.2</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B14:B19)</f>
+        <v>-284947.66666666669</v>
       </c>
       <c r="C20">
-        <v>11641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <f>C9+2613.2</f>
+        <v>9018.7999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>A20-A9</f>
-        <v>-863047.2</v>
+        <v>-118465.20000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\ADSEE-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC52559-0266-4EE9-8E17-382392191AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA627B37-7E0B-4E49-AF5B-6070BD3B326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD179A14-2C04-4BDE-906E-C539D4857755}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Div</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>distance val</t>
-  </si>
-  <si>
-    <t>-300301, 346.77, 15:36:43</t>
   </si>
   <si>
     <t>-300565, 348.74, 15:36:44</t>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>-300927, 346.65</t>
-  </si>
-  <si>
-    <t>347.56</t>
-  </si>
-  <si>
-    <t>349.57</t>
   </si>
   <si>
     <t>77 cm</t>
@@ -1379,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F52A76D-78FA-44FB-9745-E0A6B9CB8EC1}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,44 +1566,62 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>347.56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>9</v>
+      <c r="A28">
+        <v>349.57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>346.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>348.74</v>
+      </c>
+      <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>346.5</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>346.06</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>346.65</v>
+      </c>
+      <c r="C33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>7</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>AVERAGE(A27:A33)</f>
+        <v>347.4071428571429</v>
       </c>
     </row>
   </sheetData>
